--- a/Unit 1 - Excel/Classroom Activities/Class 2/06-Stu_ApplesAndOranges/Unsolved/ApplesAndOranges_Unsolved.xlsx
+++ b/Unit 1 - Excel/Classroom Activities/Class 2/06-Stu_ApplesAndOranges/Unsolved/ApplesAndOranges_Unsolved.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/besteman/code/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/06-Stu_ApplesAndOranges/Unsolved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BootCamp\PREWORK_JS\Unit 1 - Excel\Classroom Activities\Class 2\06-Stu_ApplesAndOranges\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190F184F-36A0-BF43-A679-FCF53D90A54D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E79D2F8-2F98-4BF6-A0C1-09F52E454C0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27000" windowHeight="12780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apples" sheetId="1" r:id="rId1"/>
     <sheet name="Oranges" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <definedNames>
+    <definedName name="aAero">Apples!$E$13</definedName>
+    <definedName name="aJuice">Apples!$D$13</definedName>
+    <definedName name="oEase">Oranges!$B$13</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>Durability</t>
   </si>
@@ -41,6 +53,18 @@
   </si>
   <si>
     <t>Aerodynamics</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Oranges</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>Total Wins</t>
   </si>
 </sst>
 </file>
@@ -406,16 +430,16 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -449,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -466,7 +490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -483,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -500,7 +524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -517,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -534,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -551,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -568,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -585,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -602,12 +626,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>AVERAGE(A2:A11)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B13" s="1">
+        <f>AVERAGE(B2:B11)</f>
+        <v>4.7</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <f>AVERAGE(D2:D11)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E13" s="1">
+        <f>AVERAGE(E2:E11)</f>
+        <v>7.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -619,16 +658,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20.6640625" customWidth="1"/>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -662,7 +701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -679,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -696,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -713,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -730,7 +769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -747,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -764,7 +803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -781,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -798,7 +837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -815,12 +854,251 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>AVERAGE(A2:A11)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B13" s="1">
+        <f>AVERAGE(B2:B11)</f>
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>5.7</v>
+      </c>
+      <c r="D13" s="1">
+        <f>AVERAGE(D2:D11)</f>
+        <v>6.3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>AVERAGE(E2:E11)</f>
+        <v>4.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989977FB-10BB-4B96-A8CC-81FCFBFC524F}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="13.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <f>Apples!A13</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Apples!B13</f>
+        <v>4.7</v>
+      </c>
+      <c r="D2" s="1">
+        <f>Apples!C13</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Apples!D13</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F2" s="1">
+        <f>Apples!E13</f>
+        <v>7.8</v>
+      </c>
+      <c r="H2" s="1">
+        <f>COUNTIF(B5:F5, "APPLES")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <f>Oranges!A13</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Oranges!B13</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <f>Oranges!C13</f>
+        <v>5.7</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Oranges!D13</f>
+        <v>6.3</v>
+      </c>
+      <c r="F3" s="1">
+        <f>Oranges!E13</f>
+        <v>4.3</v>
+      </c>
+      <c r="H3" s="1">
+        <f>COUNTIF(B5:F5, "ORANGES")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>IF(B2=B3, "TIE", IF(B2&gt;B3, "APPLES", "ORANGES"))</f>
+        <v>APPLES</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>IF(C2=C3, "TIE", IF(C2&gt;C3, "APPLES", "ORANGES"))</f>
+        <v>ORANGES</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>IF(D2=D3, "TIE", IF(D2&gt;D3, "APPLES", "ORANGES"))</f>
+        <v>ORANGES</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>IF(E2=E3, "TIE", IF(E2&gt;E3, "APPLES", "ORANGES"))</f>
+        <v>ORANGES</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>IF(F2=F3, "TIE", IF(F2&gt;F3, "APPLES", "ORANGES"))</f>
+        <v>APPLES</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <f>AVERAGE(Apples!A2:A11)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(Apples!B2:B11)</f>
+        <v>4.7</v>
+      </c>
+      <c r="D10" s="1">
+        <f>AVERAGE(Apples!C2:C11)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E10" s="1">
+        <f>AVERAGE(Apples!D2:D11)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F10" s="1">
+        <f>AVERAGE(Apples!E2:E11)</f>
+        <v>7.8</v>
+      </c>
+      <c r="H10" s="1">
+        <f>COUNTIF(B13:F13, "APPLES")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <f>AVERAGE(Oranges!A2:A11)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(Oranges!B2:B11)</f>
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <f>AVERAGE(Oranges!C2:C11)</f>
+        <v>5.7</v>
+      </c>
+      <c r="E11" s="1">
+        <f>AVERAGE(Oranges!D2:D11)</f>
+        <v>6.3</v>
+      </c>
+      <c r="F11" s="1">
+        <f>AVERAGE(Oranges!E2:E11)</f>
+        <v>4.3</v>
+      </c>
+      <c r="H11" s="1">
+        <f>COUNTIF(B13:F13, "ORANGES")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>IF(B10=B11, "TIE", IF(B10&gt;B11, "APPLES", "ORANGES"))</f>
+        <v>APPLES</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>IF(C10=C11, "TIE", IF(C10&gt;C11, "APPLES", "ORANGES"))</f>
+        <v>ORANGES</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>IF(D10=D11, "TIE", IF(D10&gt;D11, "APPLES", "ORANGES"))</f>
+        <v>ORANGES</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>IF(E10=E11, "TIE", IF(E10&gt;E11, "APPLES", "ORANGES"))</f>
+        <v>ORANGES</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>IF(F10=F11, "TIE", IF(F10&gt;F11, "APPLES", "ORANGES"))</f>
+        <v>APPLES</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
